--- a/data/open/MS2_v2_1_Classification.xlsx
+++ b/data/open/MS2_v2_1_Classification.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e6147b7783cbd607/Desktop/temp/market survey/VNSOMCS_1_2_STATA_All/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RAP\vnso-RAP-marketStats-materials\data\open\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="8_{7FBE184C-5F05-4AB5-BA37-C7795470E804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D21778E-3BD6-4FE5-B2CD-4E0EB87E86CA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A736319B-B034-4424-8A4A-7E08A31B61A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="5" xr2:uid="{CE76F9FA-8832-4AA5-9FBE-2A7328E56FF6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="6" xr2:uid="{CE76F9FA-8832-4AA5-9FBE-2A7328E56FF6}"/>
   </bookViews>
   <sheets>
     <sheet name="fruit" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="rootcropmeasure" sheetId="4" r:id="rId4"/>
     <sheet name="vegetabletype" sheetId="5" r:id="rId5"/>
     <sheet name="vegetablemeasure" sheetId="6" r:id="rId6"/>
+    <sheet name="marketlocation" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
   <si>
     <t>fruit_type</t>
   </si>
@@ -196,16 +197,41 @@
   </si>
   <si>
     <t>vegetablemeasure_desc</t>
+  </si>
+  <si>
+    <t>Lenakel Market</t>
+  </si>
+  <si>
+    <t>Manples Market</t>
+  </si>
+  <si>
+    <t>Luganville Municipal Market</t>
+  </si>
+  <si>
+    <t>Port Vila Municipal Market</t>
+  </si>
+  <si>
+    <t>market_desc</t>
+  </si>
+  <si>
+    <t>market_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -228,14 +254,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{1843C10C-F889-4B72-AFFF-5BB90FA2B0BB}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -831,7 +860,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
-        <f t="shared" ref="A4:A9" si="0">A3+1</f>
+        <f t="shared" ref="A4:A8" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -1062,7 +1091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B98EED10-BFCE-435A-B879-3DF958957219}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1103,4 +1132,64 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B18D0641-C343-46E3-A007-F05E946CF8AB}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>